--- a/Selenium/Bugs/data/style/청량한.xlsx
+++ b/Selenium/Bugs/data/style/청량한.xlsx
@@ -745,7 +745,7 @@
     <t>Be Cool (feat. Bailey, Marco Foster)</t>
   </si>
   <si>
-    <t>Can't Let You Go</t>
+    <t xml:space="preserve">Can't Let You Go </t>
   </si>
   <si>
     <t>Hold On Me</t>
@@ -913,7 +913,7 @@
     <t>Broken (feat. Natasha)</t>
   </si>
   <si>
-    <t>[19금]</t>
+    <t>Spring Break (feat. Rich The Kid)</t>
   </si>
   <si>
     <t>Talk To You</t>
@@ -2620,7 +2620,7 @@
     <t>https://image.bugsm.co.kr/album/images/50/202592/20259247.jpg?version=20190612120021.0</t>
   </si>
   <si>
-    <t>https://image.bugsm.co.kr/album/images/50/7811/781152.jpg?version=20200714120402.0</t>
+    <t>https://image.bugsm.co.kr/album/images/50/7811/781152.jpg?version=20201223074004.0</t>
   </si>
   <si>
     <t>https://image.bugsm.co.kr/album/images/50/203369/20336934.jpg?version=20200712120004.0</t>
